--- a/biology/Botanique/Johann_Philipp_Breyne/Johann_Philipp_Breyne.xlsx
+++ b/biology/Botanique/Johann_Philipp_Breyne/Johann_Philipp_Breyne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Philipp Breyne, né le 9 août 1680 à Danzig et décédé le 12 décembre 1764 à Danzig, est un botaniste, paléontologue, zoologiste et entomologiste allemand. Il est connu pour son travail sur la cochenille polonaise (Porphyrophora polonica), un insecte autrefois utilisé pour la production de pigment rouge.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Philipp Breyne est le fils de Jacob Breyne. Il naît à Danzig (aujourd'hui Gdańsk), en Pologne. Sur l'initiative de Hans Sloane, il est élu le 21 avril 1703 comme fellow de la Royal Society. Il est également membre de l'Académie allemande des sciences Leopoldina (après 1715) et de la Societas Litteraria (après 1720). Il meurt le 12 décembre 1764 à Danzig.
 </t>
